--- a/product.xlsx
+++ b/product.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24795" windowHeight="12120"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="24795" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="option" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="561">
   <si>
     <t>name</t>
   </si>
@@ -1707,7 +1708,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1729,6 +1730,21 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1764,12 +1780,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1777,9 +1794,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2080,7 +2099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -7461,4 +7480,66 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/product.xlsx
+++ b/product.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="570">
   <si>
     <t>name</t>
   </si>
@@ -1701,6 +1701,42 @@
   </si>
   <si>
     <t>IMG_1510908858613.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시럽추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷추가 + 시럽추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷추가 + 사이즈업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시럽추가 + 사이즈업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷추가 + 시럽추가 + 사이즈업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7484,57 +7520,87 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1500</v>
+      </c>
+      <c r="B9" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24795" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="24795" windowHeight="12120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
     <sheet name="option" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="575">
   <si>
     <t>name</t>
   </si>
@@ -1737,6 +1738,26 @@
   </si>
   <si>
     <t>샷추가 + 시럽추가 + 사이즈업</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -7522,7 +7543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7608,4 +7629,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4">
+        <v>2222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/product.xlsx
+++ b/product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRoot\chatbot\Chatbot_FG\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB960B-FDAF-4C92-A68A-1D982C1E5624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24795" windowHeight="12120" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -1764,7 +1770,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1855,13 +1861,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1910,7 +1919,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1943,9 +1952,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1978,6 +2004,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2153,21 +2196,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="B159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J184" sqref="J184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="119.125" customWidth="1"/>
+    <col min="3" max="3" width="119.09765625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2225,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2251,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2283,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2312,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2370,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2399,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2428,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2457,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2486,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2515,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2544,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -2602,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -2631,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
@@ -2660,7 +2703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -2689,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>58</v>
       </c>
@@ -2718,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -2747,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -2776,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
@@ -2805,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
@@ -2863,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2921,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
@@ -2950,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
@@ -2979,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
@@ -3008,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
@@ -3037,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
@@ -3066,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -3095,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -3124,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
@@ -3153,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
@@ -3182,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -3240,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
@@ -3269,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>118</v>
       </c>
@@ -3298,7 +3341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>121</v>
       </c>
@@ -3327,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>124</v>
       </c>
@@ -3356,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>127</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>130</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>133</v>
       </c>
@@ -3443,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>136</v>
       </c>
@@ -3472,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>139</v>
       </c>
@@ -3501,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>142</v>
       </c>
@@ -3530,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>145</v>
       </c>
@@ -3559,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -3588,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>151</v>
       </c>
@@ -3617,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
@@ -3646,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>157</v>
       </c>
@@ -3675,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>160</v>
       </c>
@@ -3704,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
@@ -3733,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
@@ -3762,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>169</v>
       </c>
@@ -3791,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>172</v>
       </c>
@@ -3820,7 +3863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>175</v>
       </c>
@@ -3849,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>178</v>
       </c>
@@ -3878,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
@@ -3907,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>184</v>
       </c>
@@ -3936,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
@@ -3965,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>190</v>
       </c>
@@ -3994,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>193</v>
       </c>
@@ -4020,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="I64" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>196</v>
       </c>
@@ -4052,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>199</v>
       </c>
@@ -4081,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>202</v>
       </c>
@@ -4110,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
@@ -4139,7 +4182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>207</v>
       </c>
@@ -4168,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>210</v>
       </c>
@@ -4197,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>213</v>
       </c>
@@ -4226,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>216</v>
       </c>
@@ -4255,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>219</v>
       </c>
@@ -4284,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>222</v>
       </c>
@@ -4313,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>225</v>
       </c>
@@ -4342,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>228</v>
       </c>
@@ -4371,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>231</v>
       </c>
@@ -4400,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>234</v>
       </c>
@@ -4429,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
         <v>237</v>
       </c>
@@ -4458,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>240</v>
       </c>
@@ -4487,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>243</v>
       </c>
@@ -4516,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>246</v>
       </c>
@@ -4545,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>249</v>
       </c>
@@ -4574,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>252</v>
       </c>
@@ -4603,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>255</v>
       </c>
@@ -4632,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>258</v>
       </c>
@@ -4661,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>261</v>
       </c>
@@ -4690,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="2" t="s">
         <v>264</v>
       </c>
@@ -4719,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>267</v>
       </c>
@@ -4748,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>270</v>
       </c>
@@ -4777,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>273</v>
       </c>
@@ -4806,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>276</v>
       </c>
@@ -4832,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="I92" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>279</v>
       </c>
@@ -4864,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>282</v>
       </c>
@@ -4893,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>285</v>
       </c>
@@ -4922,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>288</v>
       </c>
@@ -4951,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>291</v>
       </c>
@@ -4980,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>294</v>
       </c>
@@ -5009,7 +5052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>297</v>
       </c>
@@ -5035,10 +5078,10 @@
         <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>300</v>
       </c>
@@ -5067,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
         <v>303</v>
       </c>
@@ -5096,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>306</v>
       </c>
@@ -5125,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>309</v>
       </c>
@@ -5154,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>312</v>
       </c>
@@ -5180,10 +5223,10 @@
         <v>0</v>
       </c>
       <c r="I104" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>315</v>
       </c>
@@ -5212,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>318</v>
       </c>
@@ -5241,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>321</v>
       </c>
@@ -5267,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="I107" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>324</v>
       </c>
@@ -5299,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>327</v>
       </c>
@@ -5328,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>330</v>
       </c>
@@ -5357,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
         <v>333</v>
       </c>
@@ -5386,7 +5429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
         <v>336</v>
       </c>
@@ -5415,7 +5458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="2" t="s">
         <v>339</v>
       </c>
@@ -5444,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="2" t="s">
         <v>342</v>
       </c>
@@ -5473,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="2" t="s">
         <v>345</v>
       </c>
@@ -5502,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="2" t="s">
         <v>348</v>
       </c>
@@ -5531,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="2" t="s">
         <v>351</v>
       </c>
@@ -5560,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
         <v>354</v>
       </c>
@@ -5589,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="2" t="s">
         <v>357</v>
       </c>
@@ -5618,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="2" t="s">
         <v>360</v>
       </c>
@@ -5647,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="2" t="s">
         <v>363</v>
       </c>
@@ -5676,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="2" t="s">
         <v>366</v>
       </c>
@@ -5705,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="2" t="s">
         <v>369</v>
       </c>
@@ -5734,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="2" t="s">
         <v>372</v>
       </c>
@@ -5763,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="2" t="s">
         <v>375</v>
       </c>
@@ -5792,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="2" t="s">
         <v>378</v>
       </c>
@@ -5821,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="2" t="s">
         <v>381</v>
       </c>
@@ -5850,7 +5893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="2" t="s">
         <v>384</v>
       </c>
@@ -5879,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="2" t="s">
         <v>387</v>
       </c>
@@ -5908,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="2" t="s">
         <v>390</v>
       </c>
@@ -5937,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="2" t="s">
         <v>393</v>
       </c>
@@ -5966,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>396</v>
       </c>
@@ -5995,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>399</v>
       </c>
@@ -6024,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>402</v>
       </c>
@@ -6053,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>405</v>
       </c>
@@ -6082,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="2" t="s">
         <v>408</v>
       </c>
@@ -6108,10 +6151,10 @@
         <v>0</v>
       </c>
       <c r="I136" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="2" t="s">
         <v>411</v>
       </c>
@@ -6140,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="2" t="s">
         <v>414</v>
       </c>
@@ -6166,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="I138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="2" t="s">
         <v>417</v>
       </c>
@@ -6195,10 +6238,10 @@
         <v>0</v>
       </c>
       <c r="I139" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="2" t="s">
         <v>420</v>
       </c>
@@ -6227,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="2" t="s">
         <v>423</v>
       </c>
@@ -6256,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="2" t="s">
         <v>426</v>
       </c>
@@ -6285,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="2" t="s">
         <v>429</v>
       </c>
@@ -6311,10 +6354,10 @@
         <v>0</v>
       </c>
       <c r="I143" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="2" t="s">
         <v>432</v>
       </c>
@@ -6343,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="2" t="s">
         <v>435</v>
       </c>
@@ -6372,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
         <v>438</v>
       </c>
@@ -6401,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="2" t="s">
         <v>441</v>
       </c>
@@ -6430,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="2" t="s">
         <v>444</v>
       </c>
@@ -6459,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="2" t="s">
         <v>447</v>
       </c>
@@ -6488,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>450</v>
       </c>
@@ -6517,7 +6560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>453</v>
       </c>
@@ -6546,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>456</v>
       </c>
@@ -6575,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>459</v>
       </c>
@@ -6604,7 +6647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>462</v>
       </c>
@@ -6633,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>465</v>
       </c>
@@ -6662,7 +6705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>468</v>
       </c>
@@ -6691,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>471</v>
       </c>
@@ -6720,7 +6763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>474</v>
       </c>
@@ -6749,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>477</v>
       </c>
@@ -6778,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>480</v>
       </c>
@@ -6807,7 +6850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>483</v>
       </c>
@@ -6836,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>486</v>
       </c>
@@ -6865,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>489</v>
       </c>
@@ -6894,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>492</v>
       </c>
@@ -6923,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>495</v>
       </c>
@@ -6952,7 +6995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>498</v>
       </c>
@@ -6981,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>501</v>
       </c>
@@ -7010,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>504</v>
       </c>
@@ -7039,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>507</v>
       </c>
@@ -7068,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>509</v>
       </c>
@@ -7097,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>512</v>
       </c>
@@ -7126,7 +7169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>515</v>
       </c>
@@ -7155,7 +7198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>518</v>
       </c>
@@ -7184,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>521</v>
       </c>
@@ -7213,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>524</v>
       </c>
@@ -7242,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>527</v>
       </c>
@@ -7271,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>530</v>
       </c>
@@ -7300,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>533</v>
       </c>
@@ -7329,7 +7372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>536</v>
       </c>
@@ -7358,7 +7401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>539</v>
       </c>
@@ -7387,7 +7430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>542</v>
       </c>
@@ -7416,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>545</v>
       </c>
@@ -7445,7 +7488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>548</v>
       </c>
@@ -7474,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>551</v>
       </c>
@@ -7500,10 +7543,10 @@
         <v>0</v>
       </c>
       <c r="I184" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>554</v>
       </c>
@@ -7540,19 +7583,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -7560,7 +7603,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -7568,7 +7611,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>500</v>
       </c>
@@ -7576,7 +7619,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>300</v>
       </c>
@@ -7584,7 +7627,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>700</v>
       </c>
@@ -7592,7 +7635,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>800</v>
       </c>
@@ -7600,7 +7643,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1200</v>
       </c>
@@ -7608,7 +7651,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
@@ -7616,7 +7659,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1500</v>
       </c>
@@ -7632,16 +7675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>570</v>
       </c>
@@ -7649,7 +7692,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>574</v>
       </c>
@@ -7657,7 +7700,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>572</v>
       </c>
@@ -7665,7 +7708,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>573</v>
       </c>

--- a/product.xlsx
+++ b/product.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRoot\chatbot\Chatbot_FG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DB960B-FDAF-4C92-A68A-1D982C1E5624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -147,9 +141,6 @@
     <t>녹차 플랫치노</t>
   </si>
   <si>
-    <t>국산 녹차의 진한 맛이 우유와 휘핑크림을 만나 달콤하고 부드러운 맛을 내는 이디야 인기 메뉴</t>
-  </si>
-  <si>
     <t>IMG_1647322227436.png</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>더블 토피넛 위드샷</t>
   </si>
   <si>
-    <t>토피넛 파우더와 마카다미아향에 이디야 블렌드 에스프레소의 깊은 풍미가 더해진 달콤한 음료와 아몬드 브리틀의 바삭한 식감을 즐길 수 있는 커피 음료</t>
-  </si>
-  <si>
     <t>IMG_1647319813487.png</t>
   </si>
   <si>
@@ -219,27 +207,18 @@
     <t>디카페인 버블 흑당 콜드브루</t>
   </si>
   <si>
-    <t>디카페인 이디야의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 쫄깃한 버블이 어우러진 커피음료</t>
-  </si>
-  <si>
     <t>IMG_1647324439469.png</t>
   </si>
   <si>
     <t>디카페인 연유 콜드브루</t>
   </si>
   <si>
-    <t>디카페인 베트남풍 연유의 달콤한 맛과 밸런스 잡힌 이디야 콜드브루가 어우러져 특색있게 즐길 수 있는 음료</t>
-  </si>
-  <si>
     <t>IMG_1647320633102.png</t>
   </si>
   <si>
     <t>디카페인 콜드브루 니트로</t>
   </si>
   <si>
-    <t>디카페인 이디야커피만의 질소투입방식을 통해 신선하고 부드러운 거품과 목넘김, 풍미를 느낄 수 있는 커피</t>
-  </si>
-  <si>
     <t>IMG_1647320389669.png</t>
   </si>
   <si>
@@ -255,9 +234,6 @@
     <t>디카페인 콜드브루 아메리카노</t>
   </si>
   <si>
-    <t>디카페인 이디야만의 블렌딩을 통해 커피의 깊은 단맛과 바디감,균형잡힌 밸런스를 느낄 수 있는 시원한 콜드브루 커피</t>
-  </si>
-  <si>
     <t>IMG_1648685292664.png</t>
   </si>
   <si>
@@ -282,9 +258,6 @@
     <t>디카페인 흑당 콜드브루</t>
   </si>
   <si>
-    <t>디카페인 이디야 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 고소한 우유가 어우러진 커피음료</t>
-  </si>
-  <si>
     <t>IMG_1647320424871.png</t>
   </si>
   <si>
@@ -489,9 +462,6 @@
     <t>믹스라떼</t>
   </si>
   <si>
-    <t>이디야의 노하우가 집약된 골드 블렌드 커피믹스를 엑스트라 사이즈로 즐길 수 있는 음료</t>
-  </si>
-  <si>
     <t>IMG_1649842079840.png</t>
   </si>
   <si>
@@ -507,18 +477,12 @@
     <t>민트 초콜릿</t>
   </si>
   <si>
-    <t>상쾌한 민트향이 가득한 진한 초콜렛 위에 달콤한 휘핑크림으로 마무리 한 이디야의 인기메뉴</t>
-  </si>
-  <si>
     <t>IMG_1647321892161.png</t>
   </si>
   <si>
     <t>민트 초콜릿 칩 플랫치노</t>
   </si>
   <si>
-    <t>진한 민트향이 더해진 초코렛에 초콜렛칩이 가득 들어있는 젊은 감성의 이디야 플랫치노</t>
-  </si>
-  <si>
     <t>IMG_1647322244409.png</t>
   </si>
   <si>
@@ -588,18 +552,12 @@
     <t>버블 흑당 콜드브루</t>
   </si>
   <si>
-    <t>이디야의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 쫄깃한 버블이 어우러진 커피음료</t>
-  </si>
-  <si>
     <t>IMG_1647324361882.png</t>
   </si>
   <si>
     <t>버블믹스라떼</t>
   </si>
   <si>
-    <t>이디야의 노하우가 집약된 골드 블렌드 커피믹스에 쫀득한 버블을 더해 엑스트라 사이즈로 즐길 수 있는 음료</t>
-  </si>
-  <si>
     <t>IMG_1649842193304.png</t>
   </si>
   <si>
@@ -624,9 +582,6 @@
     <t>복분자 뱅쇼 콤부차</t>
   </si>
   <si>
-    <t>뱅쇼에 이디야만의 콤부차를 더해 새콤함과 청량감을 동시에 느낄 수 있는 음료로 블루베리, 크랜베리, 오렌지와 함께 과일의 향미와 풍부함까지 즐길 수 있는 음료</t>
-  </si>
-  <si>
     <t>IMG_1636962593224.png</t>
   </si>
   <si>
@@ -666,9 +621,6 @@
     <t>블루베리 치즈 스틱케익</t>
   </si>
   <si>
-    <t>부드럽고 신선한 맛을 느낄 수 있는 끼리 크림 치즈를 활용한 진한 치즈케익 위에 진짜 블루베리가 첨가되어 있는 이디야만의 블루베리 치즈 스틱케익</t>
-  </si>
-  <si>
     <t>IMG_1622443609575.png</t>
   </si>
   <si>
@@ -810,9 +762,6 @@
     <t>스노우 쿠키</t>
   </si>
   <si>
-    <t>부드럽고 시원한 크림과 바삭한 쿠키가 조화로운 이디야 디저트</t>
-  </si>
-  <si>
     <t>IMG_1510908976337.png</t>
   </si>
   <si>
@@ -846,18 +795,12 @@
     <t>쌍화차</t>
   </si>
   <si>
-    <t>전통 쌍화차의 느낌을 이디야만의 색깔로 재해석하여 다양한 연령층이 즐길 수 있도록 은은한 향과 고소함을 강조한 음료</t>
-  </si>
-  <si>
     <t>IMG_1647322753151.png</t>
   </si>
   <si>
     <t>아메리카노</t>
   </si>
   <si>
-    <t>구운 견과류의 고소한 향미와 다크초콜렛의 Bitter sweet 깊고 깔끔한 애프터테이스트가 특징인 이디야의 대표음료</t>
-  </si>
-  <si>
     <t>IMG_1647321089298.png</t>
   </si>
   <si>
@@ -918,9 +861,6 @@
     <t>아포가토 오리지널</t>
   </si>
   <si>
-    <t>대중들에게 가장 친숙한 타입의 아포가토로 이디야 빙볼에 에스프레소와 아몬드를 토핑한 제품</t>
-  </si>
-  <si>
     <t>IMG_1647320234464.png</t>
   </si>
   <si>
@@ -963,9 +903,6 @@
     <t>에스프레소</t>
   </si>
   <si>
-    <t>정통 이탈리안 방식으로 고압을 이용하여 빠르게 추출된 커피 이디야의 모든 음료의 기본</t>
-  </si>
-  <si>
     <t>IMG_1647320254869.png</t>
   </si>
   <si>
@@ -999,9 +936,6 @@
     <t>연유 콜드브루</t>
   </si>
   <si>
-    <t>베트남풍 연유의 달콤한 맛과 밸런스 잡힌 이디야 콜드브루가 어우러져 특색있게 즐길 수 있는 음료</t>
-  </si>
-  <si>
     <t>IMG_1647320780643.png</t>
   </si>
   <si>
@@ -1053,9 +987,6 @@
     <t>이너츠</t>
   </si>
   <si>
-    <t>매일 간편하게 즐기는 이디야의 견과류</t>
-  </si>
-  <si>
     <t>IMG_1535348836201.png</t>
   </si>
   <si>
@@ -1098,9 +1029,6 @@
     <t>자몽네이블오렌지</t>
   </si>
   <si>
-    <t>자몽의 부드러운 신맛과 오렌지향을 즐길 수 있는 이디야 블렌딩티</t>
-  </si>
-  <si>
     <t>IMG_1529902147409.png</t>
   </si>
   <si>
@@ -1152,9 +1080,6 @@
     <t>초코렛청크 쿠키</t>
   </si>
   <si>
-    <t>진하고 부드러운 초코렛칩이 풍부한 쿠키. 이디야만의 반죽배합으로 만들어져 더욱 특별한 쿠키다.</t>
-  </si>
-  <si>
     <t>IMG_1641945771372.png</t>
   </si>
   <si>
@@ -1197,9 +1122,6 @@
     <t>초콜릿 디핑</t>
   </si>
   <si>
-    <t>이디야 베이커리와 잘 어울리는 진한 초코소스</t>
-  </si>
-  <si>
     <t>IMG_1645421037510.png</t>
   </si>
   <si>
@@ -1233,9 +1155,6 @@
     <t>카라멜 마끼아또</t>
   </si>
   <si>
-    <t>폼 밀크 속에 감춰진 카라멜의 달콤함과 에스프레소의 진한 맛이 돋보이는 이디야의 인기 메뉴</t>
-  </si>
-  <si>
     <t>IMG_1647321183448.png</t>
   </si>
   <si>
@@ -1296,9 +1215,6 @@
     <t>콜드브루 니트로</t>
   </si>
   <si>
-    <t>이디야커피만의 질소투입방식을 통해 신선하고 부드러운 거품과 목넘김, 풍미를 느낄 수 있는 커피</t>
-  </si>
-  <si>
     <t>IMG_1647320870899.png</t>
   </si>
   <si>
@@ -1314,9 +1230,6 @@
     <t>콜드브루 아메리카노</t>
   </si>
   <si>
-    <t>이디야만의 블렌딩을 통해 커피의 깊은 단맛과 바디감, 균형잡힌 밴런스를 느낄 수 있는 시원한 콜드브루 커피</t>
-  </si>
-  <si>
     <t>IMG_1647320820317.png</t>
   </si>
   <si>
@@ -1512,9 +1425,6 @@
     <t>프레즐</t>
   </si>
   <si>
-    <t>따뜻하게 데우면 프레즐 속 숨어있던 달콤한크림치즈가 녹으면서 부드러운 향이 살아나는 이디야의 대표 인기메뉴</t>
-  </si>
-  <si>
     <t>IMG_1510909812531.png</t>
   </si>
   <si>
@@ -1671,9 +1581,6 @@
     <t>화이트초코 마카다미아 쿠키</t>
   </si>
   <si>
-    <t>마카다미아 넛의 고소함과 화이트초콜렛의 달콤함이 조화를 이루는 쿠키. 이디야만의 반죽배합으로 만들어져 더욱 특별한 쿠키다.</t>
-  </si>
-  <si>
     <t>IMG_1641946096782.png</t>
   </si>
   <si>
@@ -1687,9 +1594,6 @@
   </si>
   <si>
     <t>흑당 콜드브루</t>
-  </si>
-  <si>
-    <t>이디야의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 고소한 우유가 어우러진 커피음료</t>
   </si>
   <si>
     <t>IMG_1647320749119.png</t>
@@ -1765,12 +1669,118 @@
   <si>
     <t>admin</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국산 녹차의 진한 맛이 우유와 휘핑크림을 만나 달콤하고 부드러운 맛을 내는 CAFÉ FG 인기 메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토피넛 파우더와 마카다미아향에 CAFÉ FG 블렌드 에스프레소의 깊은 풍미가 더해진 달콤한 음료와 아몬드 브리틀의 바삭한 식감을 즐길 수 있는 커피 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인 CAFÉ FG의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 쫄깃한 버블이 어우러진 커피음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인 베트남풍 연유의 달콤한 맛과 밸런스 잡힌 CAFÉ FG 콜드브루가 어우러져 특색있게 즐길 수 있는 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인 CAFÉ FG커피만의 질소투입방식을 통해 신선하고 부드러운 거품과 목넘김, 풍미를 느낄 수 있는 커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인 CAFÉ FG만의 블렌딩을 통해 커피의 깊은 단맛과 바디감,균형잡힌 밸런스를 느낄 수 있는 시원한 콜드브루 커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디카페인 CAFÉ FG 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 고소한 우유가 어우러진 커피음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAFÉ FG의 노하우가 집약된 골드 블렌드 커피믹스를 엑스트라 사이즈로 즐길 수 있는 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상쾌한 민트향이 가득한 진한 초콜렛 위에 달콤한 휘핑크림으로 마무리 한 CAFÉ FG의 인기메뉴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 민트향이 더해진 초코렛에 초콜렛칩이 가득 들어있는 젊은 감성의 CAFÉ FG 플랫치노</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAFÉ FG의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 쫄깃한 버블이 어우러진 커피음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAFÉ FG의 노하우가 집약된 골드 블렌드 커피믹스에 쫀득한 버블을 더해 엑스트라 사이즈로 즐길 수 있는 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅쇼에 CAFÉ FG만의 콤부차를 더해 새콤함과 청량감을 동시에 느낄 수 있는 음료로 블루베리, 크랜베리, 오렌지와 함께 과일의 향미와 풍부함까지 즐길 수 있는 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드럽고 신선한 맛을 느낄 수 있는 끼리 크림 치즈를 활용한 진한 치즈케익 위에 진짜 블루베리가 첨가되어 있는 CAFÉ FG만의 블루베리 치즈 스틱케익</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부드럽고 시원한 크림과 바삭한 쿠키가 조화로운 CAFÉ FG 디저트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통 쌍화차의 느낌을 CAFÉ FG만의 색깔로 재해석하여 다양한 연령층이 즐길 수 있도록 은은한 향과 고소함을 강조한 음료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운 견과류의 고소한 향미와 다크초콜렛의 Bitter sweet 깊고 깔끔한 애프터테이스트가 특징인 CAFÉ FG의 대표음료</t>
+  </si>
+  <si>
+    <t>대중들에게 가장 친숙한 타입의 아포가토로 CAFÉ FG 빙볼에 에스프레소와 아몬드를 토핑한 제품</t>
+  </si>
+  <si>
+    <t>정통 이탈리안 방식으로 고압을 이용하여 빠르게 추출된 커피 CAFÉ FG의 모든 음료의 기본</t>
+  </si>
+  <si>
+    <t>베트남풍 연유의 달콤한 맛과 밸런스 잡힌 CAFÉ FG 콜드브루가 어우러져 특색있게 즐길 수 있는 음료</t>
+  </si>
+  <si>
+    <t>매일 간편하게 즐기는 CAFÉ FG의 견과류</t>
+  </si>
+  <si>
+    <t>자몽의 부드러운 신맛과 오렌지향을 즐길 수 있는 CAFÉ FG 블렌딩티</t>
+  </si>
+  <si>
+    <t>진하고 부드러운 초코렛칩이 풍부한 쿠키. CAFÉ FG만의 반죽배합으로 만들어져 더욱 특별한 쿠키다.</t>
+  </si>
+  <si>
+    <t>CAFÉ FG 베이커리와 잘 어울리는 진한 초코소스</t>
+  </si>
+  <si>
+    <t>폼 밀크 속에 감춰진 카라멜의 달콤함과 에스프레소의 진한 맛이 돋보이는 CAFÉ FG의 인기 메뉴</t>
+  </si>
+  <si>
+    <t>CAFÉ FG커피만의 질소투입방식을 통해 신선하고 부드러운 거품과 목넘김, 풍미를 느낄 수 있는 커피</t>
+  </si>
+  <si>
+    <t>CAFÉ FG만의 블렌딩을 통해 커피의 깊은 단맛과 바디감, 균형잡힌 밴런스를 느낄 수 있는 시원한 콜드브루 커피</t>
+  </si>
+  <si>
+    <t>따뜻하게 데우면 프레즐 속 숨어있던 달콤한크림치즈가 녹으면서 부드러운 향이 살아나는 CAFÉ FG의 대표 인기메뉴</t>
+  </si>
+  <si>
+    <t>마카다미아 넛의 고소함과 화이트초콜렛의 달콤함이 조화를 이루는 쿠키. CAFÉ FG만의 반죽배합으로 만들어져 더욱 특별한 쿠키다.</t>
+  </si>
+  <si>
+    <t>CAFÉ FG의 밸런스 잡힌 콜드브루에 진하고 달콤한 흑당과 고소한 우유가 어우러진 커피음료</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1861,7 +1871,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1919,7 +1929,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1952,26 +1962,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2004,23 +1997,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2196,21 +2172,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J184" sqref="J184"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="3" max="3" width="119.09765625" customWidth="1"/>
+    <col min="3" max="3" width="119.125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2268,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2297,7 +2273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +2281,7 @@
         <v>3000</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
@@ -2326,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2392,7 +2368,7 @@
         <v>4200</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -2413,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2442,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -2471,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -2500,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -2529,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2566,39 +2542,39 @@
         <v>4200</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>3500</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -2616,76 +2592,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2">
         <v>4800</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>3900</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="B17" s="2">
         <v>5200</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2703,105 +2679,105 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>5500</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B19" s="2">
         <v>3900</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B20" s="2">
         <v>4700</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B21" s="2">
         <v>4200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>65</v>
+        <v>547</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -2819,18 +2795,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2">
         <v>4200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>68</v>
+        <v>548</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -2848,18 +2824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2">
         <v>4700</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>71</v>
+        <v>549</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -2877,18 +2853,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B24" s="2">
         <v>4200</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -2906,18 +2882,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2">
         <v>3800</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -2935,18 +2911,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2">
         <v>4500</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -2964,18 +2940,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2">
         <v>4500</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -2993,18 +2969,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B28" s="2">
         <v>3700</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>551</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
@@ -3022,18 +2998,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2">
         <v>4200</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -3051,18 +3027,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2">
         <v>4200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -3080,18 +3056,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B31" s="2">
         <v>3800</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -3109,18 +3085,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2">
         <v>10800</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -3138,18 +3114,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2">
         <v>5400</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -3167,18 +3143,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>4800</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -3196,18 +3172,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2">
         <v>4200</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -3225,18 +3201,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2">
         <v>4200</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -3254,18 +3230,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B37" s="2">
         <v>3800</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -3283,18 +3259,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B38" s="2">
         <v>3500</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -3312,18 +3288,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B39" s="2">
         <v>4800</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -3341,18 +3317,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B40" s="2">
         <v>10800</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -3370,18 +3346,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B41" s="2">
         <v>3500</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -3399,18 +3375,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2">
         <v>5400</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -3428,18 +3404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B43" s="2">
         <v>5400</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -3457,18 +3433,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B44" s="2">
         <v>3200</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -3486,18 +3462,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B45" s="2">
         <v>4600</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -3515,18 +3491,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B46" s="2">
         <v>2500</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -3544,18 +3520,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2">
         <v>3800</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -3573,18 +3549,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B48" s="2">
         <v>2800</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -3602,18 +3578,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B49" s="2">
         <v>2300</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -3631,18 +3607,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B50" s="2">
         <v>2300</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -3660,18 +3636,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2">
         <v>4000</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>155</v>
+        <v>552</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -3689,18 +3665,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B52" s="2">
         <v>4200</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -3718,18 +3694,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2">
         <v>4000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
+        <v>553</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -3747,18 +3723,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B54" s="2">
         <v>4200</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>164</v>
+        <v>554</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -3776,18 +3752,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2">
         <v>4600</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -3805,18 +3781,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2">
         <v>3800</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -3834,18 +3810,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B57" s="2">
         <v>3900</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2">
         <v>1</v>
@@ -3863,18 +3839,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2">
         <v>2100</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -3892,18 +3868,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B59" s="2">
         <v>2600</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -3921,18 +3897,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B60" s="2">
         <v>4200</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -3950,18 +3926,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B61" s="2">
         <v>4300</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E61" s="2">
         <v>1</v>
@@ -3979,18 +3955,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B62" s="2">
         <v>4700</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>188</v>
+        <v>555</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -4008,18 +3984,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B63" s="2">
         <v>4800</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>191</v>
+        <v>556</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E63" s="2">
         <v>1</v>
@@ -4037,18 +4013,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B64" s="2">
         <v>4800</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -4066,18 +4042,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B65" s="2">
         <v>4900</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -4095,18 +4071,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B66" s="2">
         <v>5300</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>200</v>
+        <v>557</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -4124,18 +4100,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B67" s="2">
         <v>4800</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -4153,18 +4129,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B68" s="2">
         <v>2100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -4182,18 +4158,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2">
         <v>2300</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -4211,18 +4187,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2">
         <v>4200</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -4240,18 +4216,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B71" s="2">
         <v>3800</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>214</v>
+        <v>558</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -4269,18 +4245,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B72" s="2">
         <v>3900</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -4298,18 +4274,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B73" s="2">
         <v>3800</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -4327,18 +4303,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B74" s="2">
         <v>2100</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -4356,18 +4332,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B75" s="2">
         <v>3900</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -4385,18 +4361,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B76" s="2">
         <v>3200</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -4414,18 +4390,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B77" s="2">
         <v>3700</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -4443,18 +4419,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B78" s="2">
         <v>3700</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -4472,18 +4448,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B79" s="2">
         <v>3900</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -4501,18 +4477,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2">
         <v>3700</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -4530,18 +4506,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B81" s="2">
         <v>4200</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -4559,18 +4535,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B82" s="2">
         <v>3700</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -4588,18 +4564,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B83" s="2">
         <v>3700</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -4617,18 +4593,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B84" s="2">
         <v>3700</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -4646,18 +4622,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B85" s="2">
         <v>3500</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -4675,18 +4651,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B86" s="2">
         <v>3900</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -4704,18 +4680,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B87" s="2">
         <v>1800</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>262</v>
+        <v>559</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -4733,18 +4709,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B88" s="2">
         <v>2100</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -4762,18 +4738,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B89" s="2">
         <v>3200</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -4791,18 +4767,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B90" s="2">
         <v>2100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -4820,18 +4796,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B91" s="2">
         <v>3900</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>274</v>
+        <v>560</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -4849,18 +4825,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B92" s="2">
         <v>3500</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>277</v>
+        <v>561</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -4878,18 +4854,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B93" s="2">
         <v>3700</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -4907,18 +4883,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B94" s="2">
         <v>3700</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -4936,18 +4912,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B95" s="2">
         <v>4100</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -4965,18 +4941,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B96" s="2">
         <v>2500</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -4994,18 +4970,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="B97" s="2">
         <v>2500</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -5023,18 +4999,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B98" s="2">
         <v>3700</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -5052,18 +5028,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B99" s="2">
         <v>4700</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>298</v>
+        <v>562</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -5081,18 +5057,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B100" s="2">
         <v>3200</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -5110,18 +5086,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B101" s="2">
         <v>3200</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -5139,18 +5115,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="B102" s="2">
         <v>2100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -5168,18 +5144,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B103" s="2">
         <v>4800</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -5197,18 +5173,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B104" s="2">
         <v>2500</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>313</v>
+        <v>563</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -5226,18 +5202,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B105" s="2">
         <v>3000</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -5255,18 +5231,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B106" s="2">
         <v>3500</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -5284,18 +5260,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B107" s="2">
         <v>3500</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
@@ -5313,18 +5289,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B108" s="2">
         <v>3500</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>325</v>
+        <v>564</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -5342,18 +5318,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="B109" s="2">
         <v>2200</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -5371,18 +5347,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="B110" s="2">
         <v>3000</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -5400,18 +5376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B111" s="2">
         <v>3500</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -5429,18 +5405,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="B112" s="2">
         <v>2500</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -5458,18 +5434,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B113" s="2">
         <v>3000</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E113" s="2">
         <v>1</v>
@@ -5487,18 +5463,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B114" s="2">
         <v>2000</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>343</v>
+        <v>565</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -5516,18 +5492,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B115" s="2">
         <v>2500</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -5545,18 +5521,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B116" s="2">
         <v>3300</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -5574,18 +5550,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B117" s="2">
         <v>3500</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -5603,18 +5579,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B118" s="2">
         <v>3000</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -5632,18 +5608,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B119" s="2">
         <v>3000</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>358</v>
+        <v>566</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -5661,18 +5637,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B120" s="2">
         <v>3300</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -5690,18 +5666,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="B121" s="2">
         <v>3500</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -5719,18 +5695,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="B122" s="2">
         <v>3200</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -5748,18 +5724,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="B123" s="2">
         <v>3000</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -5777,18 +5753,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B124" s="2">
         <v>4500</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -5806,18 +5782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="B125" s="2">
         <v>2200</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>376</v>
+        <v>567</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -5835,18 +5811,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
       <c r="B126" s="2">
         <v>2200</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -5864,18 +5840,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B127" s="2">
         <v>4000</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -5893,18 +5869,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
       <c r="B128" s="2">
         <v>1500</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -5922,18 +5898,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B129" s="2">
         <v>2500</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -5951,18 +5927,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="B130" s="2">
         <v>2500</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>391</v>
+        <v>568</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -5980,18 +5956,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B131" s="2">
         <v>3000</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -6009,18 +5985,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B132" s="2">
         <v>2500</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -6038,18 +6014,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="B133" s="2">
         <v>3200</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -6067,18 +6043,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="B134" s="2">
         <v>3500</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>403</v>
+        <v>569</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -6096,18 +6072,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="B135" s="2">
         <v>3500</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -6125,18 +6101,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="B136" s="2">
         <v>3500</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
@@ -6154,18 +6130,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B137" s="2">
         <v>3300</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -6183,18 +6159,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="B138" s="2">
         <v>3000</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -6212,18 +6188,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="B139" s="2">
         <v>3000</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -6241,18 +6217,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="B140" s="2">
         <v>3500</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -6270,18 +6246,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="B141" s="2">
         <v>4000</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>424</v>
+        <v>570</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -6299,18 +6275,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
       <c r="B142" s="2">
         <v>3800</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="E142" s="2">
         <v>1</v>
@@ -6328,18 +6304,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="B143" s="2">
         <v>3500</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>430</v>
+        <v>571</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -6357,18 +6333,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="B144" s="2">
         <v>3800</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="E144" s="2">
         <v>0</v>
@@ -6386,18 +6362,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="B145" s="2">
         <v>4000</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="E145" s="2">
         <v>0</v>
@@ -6415,18 +6391,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="B146" s="2">
         <v>3200</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="E146" s="2">
         <v>0</v>
@@ -6444,18 +6420,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="B147" s="2">
         <v>3500</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="E147" s="2">
         <v>0</v>
@@ -6470,21 +6446,21 @@
         <v>1</v>
       </c>
       <c r="I147" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B148" s="2">
         <v>3000</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
@@ -6502,18 +6478,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="B149" s="2">
         <v>2000</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -6531,18 +6507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="B150" s="2">
         <v>2200</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="E150" s="2">
         <v>0</v>
@@ -6560,18 +6536,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="B151" s="2">
         <v>3800</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
@@ -6589,18 +6565,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="B152" s="2">
         <v>2000</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="E152" s="2">
         <v>0</v>
@@ -6618,18 +6594,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="B153" s="2">
         <v>3000</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>461</v>
+        <v>434</v>
       </c>
       <c r="E153" s="2">
         <v>0</v>
@@ -6647,18 +6623,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>462</v>
+        <v>435</v>
       </c>
       <c r="B154" s="2">
         <v>2200</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>464</v>
+        <v>437</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -6676,18 +6652,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="B155" s="2">
         <v>2000</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>466</v>
+        <v>439</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="E155" s="2">
         <v>0</v>
@@ -6705,18 +6681,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>468</v>
+        <v>441</v>
       </c>
       <c r="B156" s="2">
         <v>3800</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>469</v>
+        <v>442</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>470</v>
+        <v>443</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -6734,18 +6710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
       <c r="B157" s="2">
         <v>3200</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>473</v>
+        <v>446</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
@@ -6763,18 +6739,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B158" s="2">
         <v>3000</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>475</v>
+        <v>448</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
@@ -6792,18 +6768,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="B159" s="2">
         <v>3000</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
@@ -6821,18 +6797,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="B160" s="2">
         <v>5000</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>482</v>
+        <v>455</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
@@ -6850,18 +6826,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="B161" s="2">
         <v>5500</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>484</v>
+        <v>457</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -6879,18 +6855,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="B162" s="2">
         <v>4500</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
@@ -6908,18 +6884,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="B163" s="2">
         <v>3500</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>491</v>
+        <v>464</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
@@ -6937,18 +6913,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="B164" s="2">
         <v>3500</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -6966,18 +6942,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>495</v>
+        <v>468</v>
       </c>
       <c r="B165" s="2">
         <v>2500</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -6995,18 +6971,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>498</v>
+        <v>470</v>
       </c>
       <c r="B166" s="2">
         <v>2000</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
@@ -7024,18 +7000,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>501</v>
+        <v>473</v>
       </c>
       <c r="B167" s="2">
         <v>2500</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>502</v>
+        <v>474</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>503</v>
+        <v>475</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
@@ -7053,18 +7029,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="B168" s="2">
         <v>3000</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
@@ -7082,18 +7058,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>507</v>
+        <v>479</v>
       </c>
       <c r="B169" s="2">
         <v>3000</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
@@ -7111,18 +7087,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
       <c r="B170" s="2">
         <v>3200</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
@@ -7140,18 +7116,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B171" s="2">
         <v>2800</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>514</v>
+        <v>486</v>
       </c>
       <c r="E171" s="2">
         <v>0</v>
@@ -7169,18 +7145,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B172" s="2">
         <v>3000</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="E172" s="2">
         <v>0</v>
@@ -7198,18 +7174,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="B173" s="2">
         <v>3500</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -7227,18 +7203,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B174" s="2">
         <v>3500</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
       <c r="E174" s="2">
         <v>0</v>
@@ -7256,18 +7232,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>524</v>
+        <v>496</v>
       </c>
       <c r="B175" s="2">
         <v>2200</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="E175" s="2">
         <v>0</v>
@@ -7285,18 +7261,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="B176" s="2">
         <v>3500</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E176" s="2">
         <v>0</v>
@@ -7314,18 +7290,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="B177" s="2">
         <v>3500</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
@@ -7343,18 +7319,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="B178" s="2">
         <v>4000</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="E178" s="2">
         <v>0</v>
@@ -7372,18 +7348,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="B179" s="2">
         <v>5000</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -7401,18 +7377,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="B180" s="2">
         <v>3500</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="E180" s="2">
         <v>0</v>
@@ -7430,18 +7406,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="B181" s="2">
         <v>2300</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="E181" s="2">
         <v>0</v>
@@ -7459,18 +7435,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="B182" s="2">
         <v>4500</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="E182" s="2">
         <v>0</v>
@@ -7488,18 +7464,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="B183" s="2">
         <v>2000</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="E183" s="2">
         <v>0</v>
@@ -7517,18 +7493,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="B184" s="2">
         <v>4300</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="E184" s="2">
         <v>1</v>
@@ -7546,18 +7522,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="B185" s="2">
         <v>4300</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="E185" s="2">
         <v>0</v>
@@ -7583,88 +7559,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="2" max="2" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="17.45" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>500</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>700</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>800</v>
       </c>
       <c r="B6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1200</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1000</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1500</v>
       </c>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7675,26 +7651,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="B2">
         <v>1234</v>
@@ -7702,7 +7678,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B3">
         <v>1111</v>
@@ -7710,7 +7686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="B4">
         <v>2222</v>
